--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.41486318874276</v>
+        <v>42.665376</v>
       </c>
       <c r="H2">
-        <v>4.41486318874276</v>
+        <v>127.996128</v>
       </c>
       <c r="I2">
-        <v>0.1796374949045729</v>
+        <v>0.5598448706913429</v>
       </c>
       <c r="J2">
-        <v>0.1796374949045729</v>
+        <v>0.5598448706913429</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.211029445006155</v>
+        <v>2.431926</v>
       </c>
       <c r="N2">
-        <v>0.211029445006155</v>
+        <v>7.295778</v>
       </c>
       <c r="O2">
-        <v>0.4094926846441148</v>
+        <v>0.8146397085966534</v>
       </c>
       <c r="P2">
-        <v>0.4094926846441148</v>
+        <v>0.8146397085966534</v>
       </c>
       <c r="Q2">
-        <v>0.9316661284984883</v>
+        <v>103.759037194176</v>
       </c>
       <c r="R2">
-        <v>0.9316661284984883</v>
+        <v>933.831334747584</v>
       </c>
       <c r="S2">
-        <v>0.07356024005121706</v>
+        <v>0.4560718623193267</v>
       </c>
       <c r="T2">
-        <v>0.07356024005121706</v>
+        <v>0.4560718623193267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.41486318874276</v>
+        <v>42.665376</v>
       </c>
       <c r="H3">
-        <v>4.41486318874276</v>
+        <v>127.996128</v>
       </c>
       <c r="I3">
-        <v>0.1796374949045729</v>
+        <v>0.5598448706913429</v>
       </c>
       <c r="J3">
-        <v>0.1796374949045729</v>
+        <v>0.5598448706913429</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.304314181192096</v>
+        <v>0.220323</v>
       </c>
       <c r="N3">
-        <v>0.304314181192096</v>
+        <v>0.6609689999999999</v>
       </c>
       <c r="O3">
-        <v>0.5905073153558852</v>
+        <v>0.07380317678956531</v>
       </c>
       <c r="P3">
-        <v>0.5905073153558852</v>
+        <v>0.07380317678956533</v>
       </c>
       <c r="Q3">
-        <v>1.343505476357379</v>
+        <v>9.400163636447999</v>
       </c>
       <c r="R3">
-        <v>1.343505476357379</v>
+        <v>84.60147272803199</v>
       </c>
       <c r="S3">
-        <v>0.1060772548533559</v>
+        <v>0.04131832996636452</v>
       </c>
       <c r="T3">
-        <v>0.1060772548533559</v>
+        <v>0.04131832996636452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.1616495882141</v>
+        <v>42.665376</v>
       </c>
       <c r="H4">
-        <v>20.1616495882141</v>
+        <v>127.996128</v>
       </c>
       <c r="I4">
-        <v>0.8203625050954271</v>
+        <v>0.5598448706913429</v>
       </c>
       <c r="J4">
-        <v>0.8203625050954271</v>
+        <v>0.5598448706913429</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.211029445006155</v>
+        <v>0.333029</v>
       </c>
       <c r="N4">
-        <v>0.211029445006155</v>
+        <v>0.9990869999999999</v>
       </c>
       <c r="O4">
-        <v>0.4094926846441148</v>
+        <v>0.1115571146137813</v>
       </c>
       <c r="P4">
-        <v>0.4094926846441148</v>
+        <v>0.1115571146137814</v>
       </c>
       <c r="Q4">
-        <v>4.254701723009395</v>
+        <v>14.208807503904</v>
       </c>
       <c r="R4">
-        <v>4.254701723009395</v>
+        <v>127.879267535136</v>
       </c>
       <c r="S4">
-        <v>0.3359324445928977</v>
+        <v>0.06245467840565174</v>
       </c>
       <c r="T4">
-        <v>0.3359324445928977</v>
+        <v>0.06245467840565175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.56506</v>
+      </c>
+      <c r="H5">
+        <v>13.69518</v>
+      </c>
+      <c r="I5">
+        <v>0.05990162668197795</v>
+      </c>
+      <c r="J5">
+        <v>0.05990162668197797</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>2.431926</v>
+      </c>
+      <c r="N5">
+        <v>7.295778</v>
+      </c>
+      <c r="O5">
+        <v>0.8146397085966534</v>
+      </c>
+      <c r="P5">
+        <v>0.8146397085966534</v>
+      </c>
+      <c r="Q5">
+        <v>11.10188810556</v>
+      </c>
+      <c r="R5">
+        <v>99.91699295004001</v>
+      </c>
+      <c r="S5">
+        <v>0.04879824370467203</v>
+      </c>
+      <c r="T5">
+        <v>0.04879824370467205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.56506</v>
+      </c>
+      <c r="H6">
+        <v>13.69518</v>
+      </c>
+      <c r="I6">
+        <v>0.05990162668197795</v>
+      </c>
+      <c r="J6">
+        <v>0.05990162668197797</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.220323</v>
+      </c>
+      <c r="N6">
+        <v>0.6609689999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.07380317678956531</v>
+      </c>
+      <c r="P6">
+        <v>0.07380317678956533</v>
+      </c>
+      <c r="Q6">
+        <v>1.00578771438</v>
+      </c>
+      <c r="R6">
+        <v>9.052089429419999</v>
+      </c>
+      <c r="S6">
+        <v>0.004420930343992562</v>
+      </c>
+      <c r="T6">
+        <v>0.004420930343992564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.56506</v>
+      </c>
+      <c r="H7">
+        <v>13.69518</v>
+      </c>
+      <c r="I7">
+        <v>0.05990162668197795</v>
+      </c>
+      <c r="J7">
+        <v>0.05990162668197797</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.333029</v>
+      </c>
+      <c r="N7">
+        <v>0.9990869999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.1115571146137813</v>
+      </c>
+      <c r="P7">
+        <v>0.1115571146137814</v>
+      </c>
+      <c r="Q7">
+        <v>1.52029736674</v>
+      </c>
+      <c r="R7">
+        <v>13.68267630066</v>
+      </c>
+      <c r="S7">
+        <v>0.006682452633313357</v>
+      </c>
+      <c r="T7">
+        <v>0.006682452633313359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>28.97884666666667</v>
+      </c>
+      <c r="H8">
+        <v>86.93653999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.3802535026266791</v>
+      </c>
+      <c r="J8">
+        <v>0.3802535026266792</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>2.431926</v>
+      </c>
+      <c r="N8">
+        <v>7.295778</v>
+      </c>
+      <c r="O8">
+        <v>0.8146397085966534</v>
+      </c>
+      <c r="P8">
+        <v>0.8146397085966534</v>
+      </c>
+      <c r="Q8">
+        <v>70.47441065868</v>
+      </c>
+      <c r="R8">
+        <v>634.26969592812</v>
+      </c>
+      <c r="S8">
+        <v>0.3097696025726546</v>
+      </c>
+      <c r="T8">
+        <v>0.3097696025726547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>20.1616495882141</v>
-      </c>
-      <c r="H5">
-        <v>20.1616495882141</v>
-      </c>
-      <c r="I5">
-        <v>0.8203625050954271</v>
-      </c>
-      <c r="J5">
-        <v>0.8203625050954271</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.304314181192096</v>
-      </c>
-      <c r="N5">
-        <v>0.304314181192096</v>
-      </c>
-      <c r="O5">
-        <v>0.5905073153558852</v>
-      </c>
-      <c r="P5">
-        <v>0.5905073153558852</v>
-      </c>
-      <c r="Q5">
-        <v>6.135475885919334</v>
-      </c>
-      <c r="R5">
-        <v>6.135475885919334</v>
-      </c>
-      <c r="S5">
-        <v>0.4844300605025293</v>
-      </c>
-      <c r="T5">
-        <v>0.4844300605025293</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>28.97884666666667</v>
+      </c>
+      <c r="H9">
+        <v>86.93653999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.3802535026266791</v>
+      </c>
+      <c r="J9">
+        <v>0.3802535026266792</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.220323</v>
+      </c>
+      <c r="N9">
+        <v>0.6609689999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.07380317678956531</v>
+      </c>
+      <c r="P9">
+        <v>0.07380317678956533</v>
+      </c>
+      <c r="Q9">
+        <v>6.384706434139999</v>
+      </c>
+      <c r="R9">
+        <v>57.46235790725999</v>
+      </c>
+      <c r="S9">
+        <v>0.02806391647920824</v>
+      </c>
+      <c r="T9">
+        <v>0.02806391647920825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>28.97884666666667</v>
+      </c>
+      <c r="H10">
+        <v>86.93653999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.3802535026266791</v>
+      </c>
+      <c r="J10">
+        <v>0.3802535026266792</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.333029</v>
+      </c>
+      <c r="N10">
+        <v>0.9990869999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.1115571146137813</v>
+      </c>
+      <c r="P10">
+        <v>0.1115571146137814</v>
+      </c>
+      <c r="Q10">
+        <v>9.650796326553332</v>
+      </c>
+      <c r="R10">
+        <v>86.85716693897999</v>
+      </c>
+      <c r="S10">
+        <v>0.04241998357481624</v>
+      </c>
+      <c r="T10">
+        <v>0.04241998357481626</v>
       </c>
     </row>
   </sheetData>
